--- a/medicine/Psychotrope/Zino_Davidoff/Zino_Davidoff.xlsx
+++ b/medicine/Psychotrope/Zino_Davidoff/Zino_Davidoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zino Davidoff est un négociant de cigares suisse d'origine russe né le 11 mars 1906 à Novhorod-Siverskyï et mort le 14 janvier 1994 à Genève. Il est considéré comme ayant apporté au cigare ses lettres de noblesse. La marque Davidoff s'est imposée dans le monde du cigare de qualité comme une référence[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zino Davidoff est un négociant de cigares suisse d'origine russe né le 11 mars 1906 à Novhorod-Siverskyï et mort le 14 janvier 1994 à Genève. Il est considéré comme ayant apporté au cigare ses lettres de noblesse. La marque Davidoff s'est imposée dans le monde du cigare de qualité comme une référence.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zino Davidoff, né en 1906 en Russie dans une famille modeste de commerçants juifs, émigre en Suisse comme réfugié en 1911 avec ses parents et ses quatre frères et sœurs fuit es pogroms en Ukraine. Son père était un spécialiste du tabac d’Orient, c’était ce qu’on appelait à l’époque un « harmanji » (un mélangeur de tabacs d’Orient). La famille Davidoff ouvre un magasin de tabac à Genève[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zino Davidoff, né en 1906 en Russie dans une famille modeste de commerçants juifs, émigre en Suisse comme réfugié en 1911 avec ses parents et ses quatre frères et sœurs fuit es pogroms en Ukraine. Son père était un spécialiste du tabac d’Orient, c’était ce qu’on appelait à l’époque un « harmanji » (un mélangeur de tabacs d’Orient). La famille Davidoff ouvre un magasin de tabac à Genève. 
 En 1925, Zino Davidoff se rend en Argentine, puis au Brésil et à La Havane. Il y reste cinq années où il apprend la fabrication des cigares. De retour à Genève, il propose à son père de créer une section de cigare de La Havane. Il réalise de nouveaux mélanges et invente la cave à cigares de bureau, permettant à ses clients de stocker leurs cigares. 
-En 1946, il a l'idée suivante : « Les fabricants cubains de cigares sont arrivés à Genève, ils sont venus me voir et m’ont demandé ce qu’il fallait faire pour réanimer le marché cubain et le lancement des produits cubains en Europe. Nous sommes allés déjeuner dans un restaurant français à Genève sur les quais. Et en regardant la carte des vins, je vois des noms prestigieux : Château Margaux, Château Latour, Château Haut-Brion, et ces noms ont eu une telle résonance dans mon cerveau que je me suis dit et si on faisait les grands crus de La Havane. Il m’a dit mais vous êtes fou. Vous avez un nom russe, ça va être signé DAVIDOFF, ces noms sont des noms français, moi je suis un fabricant espagnol et tout ça va venir de Cuba. Je lui ai dit cela va faire la Société des Nations. Il a répondu : à vos risques, on y va[3]. » 
+En 1946, il a l'idée suivante : « Les fabricants cubains de cigares sont arrivés à Genève, ils sont venus me voir et m’ont demandé ce qu’il fallait faire pour réanimer le marché cubain et le lancement des produits cubains en Europe. Nous sommes allés déjeuner dans un restaurant français à Genève sur les quais. Et en regardant la carte des vins, je vois des noms prestigieux : Château Margaux, Château Latour, Château Haut-Brion, et ces noms ont eu une telle résonance dans mon cerveau que je me suis dit et si on faisait les grands crus de La Havane. Il m’a dit mais vous êtes fou. Vous avez un nom russe, ça va être signé DAVIDOFF, ces noms sont des noms français, moi je suis un fabricant espagnol et tout ça va venir de Cuba. Je lui ai dit cela va faire la Société des Nations. Il a répondu : à vos risques, on y va. » 
 Le succès a été immédiat. Davidoff est devenu le synonyme du cigare de qualité et son nom est devenu célèbre dans le monde entier.
-Le Groupe Zino Davidoff a été fondé en 1980 par Zino Davidoff et son associé Ernst Schneider, président du conseil d'administration d'Oettinger IMEX AG[4], jusqu'en 2006. Le premier parfum Davidoff a été lancé en 1984 avec un grand succès. Puis la société qui possède la marque Davidoff a diversifié son nom sous licences : des montres, des produits de maroquinerie, des instruments d’écriture, des accessoires de mode pour homme et femme, des parfums, des lunettes, du café et du cognac.
+Le Groupe Zino Davidoff a été fondé en 1980 par Zino Davidoff et son associé Ernst Schneider, président du conseil d'administration d'Oettinger IMEX AG, jusqu'en 2006. Le premier parfum Davidoff a été lancé en 1984 avec un grand succès. Puis la société qui possède la marque Davidoff a diversifié son nom sous licences : des montres, des produits de maroquinerie, des instruments d’écriture, des accessoires de mode pour homme et femme, des parfums, des lunettes, du café et du cognac.
 Au début des années 1990, la société Davidoff quitte Cuba à la suite de problèmes de qualité et de différend commercial. Il installe ses plantations et ses ateliers à Saint-Domingue.
 Zino Davidoff a eu des clients célèbres dans le monde entier, comme Orson Welles. Dans le film de François Reichenbach L'Art de fumer le cigare par Zino Davidoff, le célèbre écrivain Frédéric Dard dit de lui : « Zino est un type merveilleux. D’abord, il a une gueule somptueuse de gentleman-rider et puis on sent qu’il y a quelque chose de malicieux ! Il a l’œil, cette espèce de laser  qui se plante en vous et on sait très bien que ça n’est pas la peine de lui en conter. Il sait où il va avec ses interlocuteurs. Et puis il a un côté chic type aussi, un côté seigneur ».
 </t>
